--- a/src/test/resources/DemoBlazeTestData.xlsx
+++ b/src/test/resources/DemoBlazeTestData.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
+    <sheet name="SignupData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>password</t>
   </si>
@@ -57,6 +58,9 @@
   </si>
   <si>
     <t>User does not exist.</t>
+  </si>
+  <si>
+    <t>ambikaaaa</t>
   </si>
 </sst>
 </file>
@@ -646,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -709,4 +713,38 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" tooltip="mailto:Leema12345@gmail.com" display="Leema12345@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>